--- a/biology/Botanique/Psilocybe_mexicana/Psilocybe_mexicana.xlsx
+++ b/biology/Botanique/Psilocybe_mexicana/Psilocybe_mexicana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilocybe mexicana est une espèce de la famille des Hymenogastraceae. Il est le plus célèbre des champignons hallucinogènes utilisés au Mexique à des fins rituelles.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Psilocybe mexicana R. Heim, 1957[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Psilocybe mexicana R. Heim, 1957.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Revue Mycol. (Paris): 77 (1957)</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le retrouve particulièrement dans l'état mexicain du Oaxaca mais il pousse également dans d'autres régions du Mexique et du Guatemala.
 </t>
@@ -603,9 +621,11 @@
           <t>Propriété</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principes actifs sont la psilocybine et la psilocine qui représentent environ 0,003 % du champignon frais et 0,3 % du champignon sec[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principes actifs sont la psilocybine et la psilocine qui représentent environ 0,003 % du champignon frais et 0,3 % du champignon sec.
 </t>
         </is>
       </c>
@@ -634,7 +654,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On le considère souvent comme le champignon sacré par excellence.
 </t>
@@ -665,7 +687,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est à partir de cette espèce qu'Albert Hofmann isola la psilocybine et la psilocine en 1958.
 </t>
